--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3274.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3274.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.020542945201023</v>
+        <v>1.773136973381042</v>
       </c>
       <c r="B1">
-        <v>1.530289845827921</v>
+        <v>3.675705194473267</v>
       </c>
       <c r="C1">
-        <v>3.30402980898442</v>
+        <v>1.971169471740723</v>
       </c>
       <c r="D1">
-        <v>4.705963419136398</v>
+        <v>1.377047300338745</v>
       </c>
       <c r="E1">
-        <v>1.423920426623818</v>
+        <v>1.175451755523682</v>
       </c>
     </row>
   </sheetData>
